--- a/data/trans_dic/P16A21_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A21_2023-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,99; 21,71</t>
+          <t>15,14; 22,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +760,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,62; 34,72</t>
+          <t>27,77; 35,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>21,81; 26,79</t>
+          <t>22,03; 27,07</t>
         </is>
       </c>
     </row>
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,83; 24,65</t>
+          <t>16,72; 24,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,96; 36,2</t>
+          <t>27,87; 35,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,99; 28,59</t>
+          <t>22,89; 28,62</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 28,46</t>
+          <t>6,21; 28,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,29; 53,17</t>
+          <t>40,17; 52,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,88; 33,25</t>
+          <t>10,01; 33,67</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1160,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,63; 31,56</t>
+          <t>25,66; 31,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1180,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,54; 75,38</t>
+          <t>37,65; 74,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,15; 56,1</t>
+          <t>32,09; 59,47</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1300,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,04; 31,67</t>
+          <t>22,86; 31,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1320,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32,14; 49,12</t>
+          <t>31,13; 49,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,79; 41,15</t>
+          <t>30,69; 40,82</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1440,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,91; 22,26</t>
+          <t>7,14; 23,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,24; 41,64</t>
+          <t>35,3; 41,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>29,09; 35,51</t>
+          <t>29,28; 35,46</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1580,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,74; 24,61</t>
+          <t>17,39; 24,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1600,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,45; 51,61</t>
+          <t>37,61; 52,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>29,26; 39,06</t>
+          <t>29,28; 38,62</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para el dolor en las últimas 2 semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>92173</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>139976</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>232149</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1992</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2074</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>76498; 112633</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2109</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1928</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>124277; 158259</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2012</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2040</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>209912; 257927</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>92503</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>122005</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>214508</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2049</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2149</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2053</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>75631; 109937</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1947</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2065</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1989</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>106634; 136761</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2126</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2030</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>191092; 238927</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>115017</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>77356</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>192373</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1994</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1979</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2003</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41494; 190014</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1945</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2030</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1908</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>67042; 88057</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1994</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>83564; 281209</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>863</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>294198</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>502874</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>797072</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1987</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2022</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2004</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>265498; 325473</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2041</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>368025; 723912</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2000</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2031</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1976</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>645737; 1196738</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>128160</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>361792</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>489952</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2008</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1979</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2034</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>108377; 149755</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2104</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1934</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>261170; 411749</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2036</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>402974; 535952</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>31244</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>291759</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>323004</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1871</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1901</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17169; 56444</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1896</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>268343; 317396</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1891</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1971</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>292993; 354864</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2254</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3114</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>753296</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1495762</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>2249057</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2031</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>586825; 830324</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2064</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1344111; 1883920</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1983</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2033</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1996</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2034781; 2683752</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>